--- a/results/segmentation_comparison_summary.xlsx
+++ b/results/segmentation_comparison_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\edge_detection_and_contours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF895D-2629-4453-A711-65FB8803DBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D17E56-2B66-4215-B01D-CD1ACC6F2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,196 +25,196 @@
     <t>Diagnosis</t>
   </si>
   <si>
+    <t>Dice (All) - Edge Detection</t>
+  </si>
+  <si>
+    <t>IOU (All) - Edge Detection</t>
+  </si>
+  <si>
+    <t>Dice (Filtered) - Edge Detection</t>
+  </si>
+  <si>
+    <t>IOU (Filtered) - Edge Detection</t>
+  </si>
+  <si>
+    <t>Dice (All) - Watershed</t>
+  </si>
+  <si>
+    <t>IOU (All) - Watershed</t>
+  </si>
+  <si>
+    <t>Dice (Filtered) - Watershed</t>
+  </si>
+  <si>
+    <t>IOU (Filtered) - Watershed</t>
+  </si>
+  <si>
+    <t>Dice (All) - Otsu</t>
+  </si>
+  <si>
+    <t>IOU (All) - Otsu</t>
+  </si>
+  <si>
+    <t>Dice (Filtered) - Otsu</t>
+  </si>
+  <si>
+    <t>IOU (Filtered) - Otsu</t>
+  </si>
+  <si>
     <t>Heart failure with infarct</t>
   </si>
   <si>
+    <t>78.8% (29.5%)</t>
+  </si>
+  <si>
+    <t>71.5% (27.7%)</t>
+  </si>
+  <si>
+    <t>89.2% (6.6%)</t>
+  </si>
+  <si>
+    <t>81.0% (9.6%)</t>
+  </si>
+  <si>
+    <t>82.5% (23.5%)</t>
+  </si>
+  <si>
+    <t>74.6% (22.8%)</t>
+  </si>
+  <si>
+    <t>88.4% (7.7%)</t>
+  </si>
+  <si>
+    <t>79.9% (11.2%)</t>
+  </si>
+  <si>
+    <t>74.0% (29.3%)</t>
+  </si>
+  <si>
+    <t>64.9% (27.6%)</t>
+  </si>
+  <si>
+    <t>83.8% (11.8%)</t>
+  </si>
+  <si>
+    <t>73.5% (14.9%)</t>
+  </si>
+  <si>
     <t>Heart failure without infarct</t>
   </si>
   <si>
+    <t>68.2% (36.0%)</t>
+  </si>
+  <si>
+    <t>60.8% (33.9%)</t>
+  </si>
+  <si>
+    <t>84.2% (15.1%)</t>
+  </si>
+  <si>
+    <t>75.0% (18.2%)</t>
+  </si>
+  <si>
+    <t>68.3% (36.9%)</t>
+  </si>
+  <si>
+    <t>61.3% (34.5%)</t>
+  </si>
+  <si>
+    <t>85.8% (13.5%)</t>
+  </si>
+  <si>
+    <t>76.9% (16.5%)</t>
+  </si>
+  <si>
+    <t>37.5% (36.6%)</t>
+  </si>
+  <si>
+    <t>30.2% (32.6%)</t>
+  </si>
+  <si>
+    <t>58.7% (29.0%)</t>
+  </si>
+  <si>
+    <t>47.3% (29.2%)</t>
+  </si>
+  <si>
     <t>Hypertrophy</t>
   </si>
   <si>
+    <t>48.7% (41.4%)</t>
+  </si>
+  <si>
+    <t>42.2% (37.7%)</t>
+  </si>
+  <si>
+    <t>72.3% (28.4%)</t>
+  </si>
+  <si>
+    <t>62.6% (28.5%)</t>
+  </si>
+  <si>
+    <t>38.3% (41.6%)</t>
+  </si>
+  <si>
+    <t>32.9% (37.0%)</t>
+  </si>
+  <si>
+    <t>78.3% (18.3%)</t>
+  </si>
+  <si>
+    <t>67.4% (20.9%)</t>
+  </si>
+  <si>
+    <t>11.7% (24.4%)</t>
+  </si>
+  <si>
+    <t>8.5% (18.5%)</t>
+  </si>
+  <si>
+    <t>55.7% (19.3%)</t>
+  </si>
+  <si>
+    <t>40.7% (17.8%)</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Dice [All] - Edge Detection</t>
-  </si>
-  <si>
-    <t>IOU [All] - Edge Detection</t>
-  </si>
-  <si>
-    <t>Dice [Filtered] - Edge Detection</t>
-  </si>
-  <si>
-    <t>IOU [Filtered] - Edge Detection</t>
-  </si>
-  <si>
-    <t>Dice [All] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>IOU [All] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>Dice [Filtered] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>IOU [Filtered] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>Dice [All] - Otsu</t>
-  </si>
-  <si>
-    <t>IOU [All] - Otsu</t>
-  </si>
-  <si>
-    <t>Dice [Filtered] - Otsu</t>
-  </si>
-  <si>
-    <t>IOU [Filtered] - Otsu</t>
-  </si>
-  <si>
-    <t>78.8% [29.5%]</t>
-  </si>
-  <si>
-    <t>71.5% [27.7%]</t>
-  </si>
-  <si>
-    <t>89.2% [6.6%]</t>
-  </si>
-  <si>
-    <t>81.0% [9.6%]</t>
-  </si>
-  <si>
-    <t>82.5% [23.5%]</t>
-  </si>
-  <si>
-    <t>74.6% [22.8%]</t>
-  </si>
-  <si>
-    <t>88.4% [7.7%]</t>
-  </si>
-  <si>
-    <t>79.9% [11.2%]</t>
-  </si>
-  <si>
-    <t>74.0% [29.3%]</t>
-  </si>
-  <si>
-    <t>64.9% [27.6%]</t>
-  </si>
-  <si>
-    <t>83.8% [11.8%]</t>
-  </si>
-  <si>
-    <t>73.5% [14.9%]</t>
-  </si>
-  <si>
-    <t>68.2% [36.0%]</t>
-  </si>
-  <si>
-    <t>60.8% [33.9%]</t>
-  </si>
-  <si>
-    <t>84.2% [15.1%]</t>
-  </si>
-  <si>
-    <t>75.0% [18.2%]</t>
-  </si>
-  <si>
-    <t>68.3% [36.9%]</t>
-  </si>
-  <si>
-    <t>61.3% [34.5%]</t>
-  </si>
-  <si>
-    <t>85.8% [13.5%]</t>
-  </si>
-  <si>
-    <t>76.9% [16.5%]</t>
-  </si>
-  <si>
-    <t>37.5% [36.6%]</t>
-  </si>
-  <si>
-    <t>30.2% [32.6%]</t>
-  </si>
-  <si>
-    <t>58.7% [29.0%]</t>
-  </si>
-  <si>
-    <t>47.3% [29.2%]</t>
-  </si>
-  <si>
-    <t>48.7% [41.4%]</t>
-  </si>
-  <si>
-    <t>42.2% [37.7%]</t>
-  </si>
-  <si>
-    <t>72.3% [28.4%]</t>
-  </si>
-  <si>
-    <t>62.6% [28.5%]</t>
-  </si>
-  <si>
-    <t>38.3% [41.6%]</t>
-  </si>
-  <si>
-    <t>32.9% [37.0%]</t>
-  </si>
-  <si>
-    <t>78.3% [18.3%]</t>
-  </si>
-  <si>
-    <t>67.4% [20.9%]</t>
-  </si>
-  <si>
-    <t>11.7% [24.4%]</t>
-  </si>
-  <si>
-    <t>8.5% [18.5%]</t>
-  </si>
-  <si>
-    <t>55.7% [19.3%]</t>
-  </si>
-  <si>
-    <t>40.7% [17.8%]</t>
-  </si>
-  <si>
-    <t>58.9% [38.1%]</t>
-  </si>
-  <si>
-    <t>50.9% [35.1%]</t>
-  </si>
-  <si>
-    <t>74.2% [25.8%]</t>
-  </si>
-  <si>
-    <t>64.1% [26.1%]</t>
-  </si>
-  <si>
-    <t>47.2% [33.5%]</t>
-  </si>
-  <si>
-    <t>37.4% [30.8%]</t>
-  </si>
-  <si>
-    <t>57.3% [27.7%]</t>
-  </si>
-  <si>
-    <t>45.4% [28.0%]</t>
-  </si>
-  <si>
-    <t>55.2% [38.6%]</t>
-  </si>
-  <si>
-    <t>47.3% [36.0%]</t>
-  </si>
-  <si>
-    <t>75.0% [22.3%]</t>
-  </si>
-  <si>
-    <t>64.3% [25.3%]</t>
+    <t>58.9% (38.1%)</t>
+  </si>
+  <si>
+    <t>50.9% (35.1%)</t>
+  </si>
+  <si>
+    <t>74.2% (25.8%)</t>
+  </si>
+  <si>
+    <t>64.1% (26.1%)</t>
+  </si>
+  <si>
+    <t>47.2% (33.5%)</t>
+  </si>
+  <si>
+    <t>37.4% (30.8%)</t>
+  </si>
+  <si>
+    <t>57.3% (27.7%)</t>
+  </si>
+  <si>
+    <t>45.4% (28.0%)</t>
+  </si>
+  <si>
+    <t>55.2% (38.6%)</t>
+  </si>
+  <si>
+    <t>47.3% (36.0%)</t>
+  </si>
+  <si>
+    <t>75.0% (22.3%)</t>
+  </si>
+  <si>
+    <t>64.3% (25.3%)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,10 +590,10 @@
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
@@ -606,168 +605,168 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
